--- a/biology/Zoologie/Alburnus_mento/Alburnus_mento.xlsx
+++ b/biology/Zoologie/Alburnus_mento/Alburnus_mento.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alburnus mento (Danube bleak en anglais[4],[5]) est un poisson d'eau douce de la famille des Cyprinidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alburnus mento (Danube bleak en anglais,) est un poisson d'eau douce de la famille des Cyprinidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alburnus mento se rencontre dans les lacs alpins d'Allemagne et d'Autriche[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alburnus mento se rencontre dans les lacs alpins d'Allemagne et d'Autriche.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Alburnus mento est de 400 mm[4]. C'est une espèce lacustre qui remonte les cours d'eau à fort courant pour s'y reproduire. La ponte a lieu sur fond de gravier, rarement sur la rive des lacs[6]. Ces œufs sont collants et adhérent aux galets et pierres[4]. La maturité sexuelle est atteinte vers l'âge de 4 à 5 ans, les femelles étant mature en moyenne un an plus tard que les mâles. La reproduction a lieu entre mai et juillet lorsque la température de l'eau est comprise entre 12 et 18 °C[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Alburnus mento est de 400 mm. C'est une espèce lacustre qui remonte les cours d'eau à fort courant pour s'y reproduire. La ponte a lieu sur fond de gravier, rarement sur la rive des lacs. Ces œufs sont collants et adhérent aux galets et pierres. La maturité sexuelle est atteinte vers l'âge de 4 à 5 ans, les femelles étant mature en moyenne un an plus tard que les mâles. La reproduction a lieu entre mai et juillet lorsque la température de l'eau est comprise entre 12 et 18 °C.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon les sources, cette espèce est indiquée comme décrite en 1836 ou en 1837. Mais force est de constater que la publication originale date de 1836.
 </t>
@@ -604,9 +622,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Heckel, 1836 : Über einige neue, oder nicht gehörig unterschiedene Cyprinen, nebst einer systematischen Darstellung der europäischen Gattungen dieser Gruppe. Annalen des Wiener Museums der Naturgeschichte, vol. 1, n. 10, p. 219-234[7] (texte intégral).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Heckel, 1836 : Über einige neue, oder nicht gehörig unterschiedene Cyprinen, nebst einer systematischen Darstellung der europäischen Gattungen dieser Gruppe. Annalen des Wiener Museums der Naturgeschichte, vol. 1, n. 10, p. 219-234 (texte intégral).</t>
         </is>
       </c>
     </row>
